--- a/data/income_statement/1digit/size/E_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/E_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>E-Water supply; sewerage; waste management and remediation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>E-Water supply; sewerage; waste management and remediation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,287 +841,327 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>361915.86812</v>
+        <v>376964.39016</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>586245.7853000001</v>
+        <v>604152.9992900001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>670537.36497</v>
+        <v>682526.9672</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>726426.27614</v>
+        <v>745917.5777099999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1251008.11986</v>
+        <v>1317145.29396</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1448923.55895</v>
+        <v>1537265.38117</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1486170.11189</v>
+        <v>1657195.18246</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1778240.02719</v>
+        <v>1924990.1587</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2189293.61006</v>
+        <v>2373912.49927</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6473643.34229</v>
+        <v>6649878.7303</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5959575.345559999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6367404.00682</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7797311.374</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>345565.13404</v>
+        <v>356811.21064</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>562897.5554500001</v>
+        <v>576837.57809</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>649988.0154699999</v>
+        <v>660385.72517</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>667515.55305</v>
+        <v>687801.78431</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1178472.29771</v>
+        <v>1240944.2888</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1355614.30875</v>
+        <v>1424460.4622</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1375124.94612</v>
+        <v>1528054.94329</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1687174.99193</v>
+        <v>1818864.80037</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2050925.06822</v>
+        <v>2229415.80218</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6070200.50887</v>
+        <v>6232038.007470001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5485019.83531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5873035.37493</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7318525.81</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>9262.56825</v>
+        <v>12179.17083</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>16446.74452</v>
+        <v>16925.28112</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>13619.68429</v>
+        <v>14382.01627</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>42651.84242</v>
+        <v>42537.51309</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>54569.55241</v>
+        <v>55279.42026000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>68319.91665</v>
+        <v>86229.36009999999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>79184.61503</v>
+        <v>92123.43079</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>64482.31745</v>
+        <v>74411.37401</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>110130.43893</v>
+        <v>113759.54021</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>336436.25112</v>
+        <v>336552.47014</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>395194.89496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>405088.31657</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>384054.386</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7088.16583</v>
+        <v>7974.008690000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>6901.48533</v>
+        <v>10390.14008</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6929.66521</v>
+        <v>7759.225759999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>16258.88067</v>
+        <v>15578.28031</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>17966.26974</v>
+        <v>20921.5849</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>24989.33355</v>
+        <v>26575.55887</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>31860.55074</v>
+        <v>37016.80838</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>26582.71781</v>
+        <v>31713.98432</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>28238.10291</v>
+        <v>30737.15688</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>67006.58229999999</v>
+        <v>81288.25268999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>79360.61529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>89280.31532000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>94731.178</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2684.84579</v>
+        <v>2722.04063</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1552.33018</v>
+        <v>2489.64781</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3212.03224</v>
+        <v>3396.96492</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2130.59249</v>
+        <v>2288.92254</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4848.789919999999</v>
+        <v>6672.4483</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6473.770759999999</v>
+        <v>7219.713700000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4090.50833</v>
+        <v>5897.564639999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5413.99711</v>
+        <v>6258.177680000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6306.75157</v>
+        <v>8815.450040000002</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>32893.98583</v>
+        <v>33255.892</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>31097.17605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>36761.75894000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>116344.154</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1250.18693</v>
+        <v>1279.10294</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1257.13292</v>
+        <v>2161.69126</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3137.71861</v>
+        <v>3269.973860000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1880.79114</v>
+        <v>2034.88478</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4484.051399999999</v>
+        <v>5105.76991</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5556.663759999999</v>
+        <v>6190.208689999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3736.31643</v>
+        <v>4653.45957</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4954.24314</v>
+        <v>5320.72371</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>5535.290789999999</v>
+        <v>7312.25174</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>22532.32828</v>
+        <v>22728.10701</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>25148.51294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>27750.8034</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>94664.99000000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1110.74667</v>
+        <v>1119.0255</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>41.64285</v>
+        <v>74.40214</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>25.89012</v>
+        <v>83.84836999999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>65.38386</v>
+        <v>68.95062999999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>133.22576</v>
+        <v>170.9501</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>334.88735</v>
+        <v>406.24131</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>188.16782</v>
+        <v>265.14025</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>280.52912</v>
+        <v>261.03937</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>497.74963</v>
+        <v>496.66673</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6157.97195</v>
+        <v>6249.188429999998</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2605.76764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2722.91371</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4146.534</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>323.91219</v>
@@ -1229,349 +1170,394 @@
         <v>253.55441</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>48.42351</v>
+        <v>43.14269</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>184.41749</v>
+        <v>185.08713</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>231.51276</v>
+        <v>1395.72829</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>582.21965</v>
+        <v>623.2637000000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>166.02408</v>
+        <v>978.96482</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>179.22485</v>
+        <v>676.4146</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>273.71115</v>
+        <v>1006.53157</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4203.685600000001</v>
+        <v>4278.59656</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3342.89547</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6288.04183</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>17532.63</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>359231.02233</v>
+        <v>374242.3495299999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>584693.4551200001</v>
+        <v>601663.3514800001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>667325.3327299999</v>
+        <v>679130.00228</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>724295.6836500001</v>
+        <v>743628.6551699998</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1246159.32994</v>
+        <v>1310472.84566</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1442449.78819</v>
+        <v>1530045.66747</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1482079.60356</v>
+        <v>1651297.61782</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1772826.03008</v>
+        <v>1918731.98102</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2182986.85849</v>
+        <v>2365097.04923</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6440749.35646</v>
+        <v>6616622.8383</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5928478.16951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6330642.247879999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7680967.22</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>303491.15607</v>
+        <v>314581.95679</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>508677.37907</v>
+        <v>526565.7754899999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>573225.19904</v>
+        <v>582422.81411</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>613772.0258600001</v>
+        <v>628725.6965</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1063110.11299</v>
+        <v>1126239.21382</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1240211.23501</v>
+        <v>1320546.66283</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1278714.34731</v>
+        <v>1417024.1346</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1536227.06226</v>
+        <v>1657021.60066</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1890031.59786</v>
+        <v>2063227.89073</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5783435.40838</v>
+        <v>5914652.060610001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5271972.502669999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5600912.52467</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7003137.178</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>97971.18537000001</v>
+        <v>102828.56152</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>187579.48405</v>
+        <v>191133.69415</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>242439.49534</v>
+        <v>244010.89917</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>230572.99685</v>
+        <v>231602.14344</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>406585.81525</v>
+        <v>429031.11742</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>405631.01847</v>
+        <v>429873.09173</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>341570.65802</v>
+        <v>388402.09358</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>437963.28822</v>
+        <v>472222.06247</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>536089.3237899999</v>
+        <v>580949.80114</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2206933.29853</v>
+        <v>2219669.41178</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1575410.14218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1629525.84292</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1652363.442</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>127070.09037</v>
+        <v>128172.79754</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>252068.32471</v>
+        <v>253059.54174</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>206814.33328</v>
+        <v>205828.71033</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>214754.94478</v>
+        <v>215719.88863</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>417297.21024</v>
+        <v>425669.70325</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>548430.21742</v>
+        <v>555557.57349</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>567824.54155</v>
+        <v>600282.35508</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>759119.54447</v>
+        <v>791104.02063</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>875909.79036</v>
+        <v>932313.4507799998</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2879735.30712</v>
+        <v>2907163.30735</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2821566.98775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2963337.665599999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3911987.619</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>77211.26194000001</v>
+        <v>82341.97934000002</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>68572.15425000001</v>
+        <v>79948.12353999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>123963.51579</v>
+        <v>132575.34998</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>165151.33887</v>
+        <v>178094.65305</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>239003.7286</v>
+        <v>270946.7735</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>277182.86642</v>
+        <v>325996.37559</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>364257.26268</v>
+        <v>423628.12085</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>332815.72461</v>
+        <v>386886.6160099999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>469410.0746</v>
+        <v>541085.5429</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>667218.9266700001</v>
+        <v>758474.3592300001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>853650.12187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>988410.99092</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1404847.505</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1238.61839</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>457.41606</v>
+        <v>2424.41606</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>7.85463</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>3292.74536</v>
+        <v>3309.01138</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>223.3589</v>
+        <v>591.61965</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>8967.1327</v>
+        <v>9119.622019999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5061.885059999999</v>
+        <v>4711.56509</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6328.50496</v>
+        <v>6808.90155</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>8622.409109999999</v>
+        <v>8879.09591</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>29547.87606</v>
+        <v>29344.98225</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>21345.25087</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19638.02523</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>33938.612</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>55739.86626</v>
+        <v>59660.39274</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>76016.07605</v>
+        <v>75097.57599</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>94100.13369000002</v>
+        <v>96707.18817000002</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>110523.65779</v>
+        <v>114902.95867</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>183049.21695</v>
+        <v>184233.63184</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>202238.55318</v>
+        <v>209499.00464</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>203365.25625</v>
+        <v>234273.48322</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>236598.96782</v>
+        <v>261710.38036</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>292955.26063</v>
+        <v>301869.1585</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>657313.94808</v>
+        <v>701970.77769</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>656505.6668400001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>729729.7232100001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>677830.042</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>43345.20813</v>
+        <v>47988.68764</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>58797.24193</v>
+        <v>66543.41237999999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>81474.90381</v>
+        <v>91276.23128000002</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>94226.23615</v>
+        <v>100194.74438</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>145455.23987</v>
+        <v>156459.5491</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>148855.1828</v>
+        <v>163492.72913</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>166867.38318</v>
+        <v>188659.51223</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>199343.53715</v>
+        <v>217303.50368</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>241658.07159</v>
+        <v>254027.43661</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>450733.2307</v>
+        <v>478967.2954600001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>489559.51854</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>524947.8933100001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>541193.866</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>7.90958</v>
@@ -1583,22 +1569,22 @@
         <v>83.09336999999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>11.48932</v>
+        <v>9.87838</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>70.56754000000001</v>
+        <v>66.60554</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>590.88424</v>
+        <v>576.38174</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>120.78873</v>
+        <v>167.25101</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>175.48479</v>
+        <v>156.33553</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>908.0492399999999</v>
+        <v>900.04696</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>160.17219</v>
@@ -1606,206 +1592,236 @@
       <c r="M21" s="48" t="n">
         <v>153.08468</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>249.946</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>9484.89759</v>
+        <v>9280.160179999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>12048.2758</v>
+        <v>12619.27099</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>19808.39418</v>
+        <v>20489.17003</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>18645.47478</v>
+        <v>20815.40609</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>34325.6065</v>
+        <v>36303.48244</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>38341.19245</v>
+        <v>44840.10212</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>47127.76633999999</v>
+        <v>52445.33613</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>48540.69265</v>
+        <v>50714.52585999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>60423.47238</v>
+        <v>66335.95942999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>146612.53933</v>
+        <v>149011.07104</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>129895.47101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>136634.72914</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>128345.658</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>33852.40096</v>
+        <v>38700.61788000001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>46744.49019</v>
+        <v>53919.66544999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>61583.41626</v>
+        <v>70703.96788</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>75569.27205</v>
+        <v>79369.45991000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>111059.06583</v>
+        <v>120089.46112</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>109923.10611</v>
+        <v>118076.24527</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>119618.82811</v>
+        <v>136046.92509</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>150627.35971</v>
+        <v>166432.64229</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>180326.54997</v>
+        <v>186791.43022</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>303960.51918</v>
+        <v>329796.05223</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>359510.96285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>388160.07949</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>412598.262</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>12394.65813</v>
+        <v>11671.7051</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>17218.83412</v>
+        <v>8554.16361</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>12625.22988</v>
+        <v>5430.95689</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>16297.42164</v>
+        <v>14708.21429</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>37593.97708</v>
+        <v>27774.08274</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>53383.37038</v>
+        <v>46006.27551</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>36497.87307000001</v>
+        <v>45613.97099</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>37255.43066999999</v>
+        <v>44406.87668</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>51297.18904</v>
+        <v>47841.72189</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>206580.71738</v>
+        <v>223003.48223</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>166946.1483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>204781.8299</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>136636.176</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5461.24</v>
+        <v>7153.549</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3987.22824</v>
+        <v>8559.784299999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5955.051270000001</v>
+        <v>8716.365179999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>8315.698400000001</v>
+        <v>15187.15338</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>11666.39971</v>
+        <v>27366.68464</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>11927.2065</v>
+        <v>32169.42711</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>20112.99108</v>
+        <v>63421.80900000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>20968.14949</v>
+        <v>58580.32732</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>25404.5884</v>
+        <v>41841.95932000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>116858.92319</v>
+        <v>238762.33176</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>93703.75300000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>136373.21906</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>242000.132</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2215.84497</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>821.68512</v>
+        <v>1745.53889</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>1.02053</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>257.44683</v>
+        <v>41.84077</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>262.38569</v>
+        <v>1773.84847</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>236.8856</v>
+        <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>248.35612</v>
+        <v>7220.6316</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>223.91627</v>
+        <v>17903.27615</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1426.02834</v>
+        <v>5279.41497</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>5708.759349999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>8143.06923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1807.30352</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>733.648</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>149.71107</v>
@@ -1817,7 +1833,7 @@
         <v>39.81381</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>599.04197</v>
+        <v>1421.2477</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>242.29793</v>
@@ -1826,64 +1842,74 @@
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>189.35456</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>4596.368719999999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>12.78709</v>
+        <v>4625.96404</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>62749.7781</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>751.3059000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>7089.06023</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>574.599</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>357.22488</v>
+        <v>1202.93405</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>548.32077</v>
+        <v>1239.42141</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>260.11907</v>
+        <v>1237.80572</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>686.78745</v>
+        <v>4537.29274</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2261.96438</v>
+        <v>6595.47293</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1623.4894</v>
+        <v>8515.887480000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1880.20505</v>
+        <v>11725.19256</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2552.98809</v>
+        <v>3717.40419</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3422.753020000001</v>
+        <v>3742.32247</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>16312.95797</v>
+        <v>24039.95442</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>18831.85977</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>25712.69269</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>18688.367</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1892,16 +1918,16 @@
         <v>0.3</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>0</v>
+        <v>16.20422</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>202.06751</v>
+        <v>2.06751</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>22.3182</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>80.35122</v>
+        <v>83.94242</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>1.65646</v>
@@ -1910,7 +1936,7 @@
         <v>208.6582</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>327.98446</v>
+        <v>24.88485</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>14.20889</v>
@@ -1918,134 +1944,154 @@
       <c r="M29" s="48" t="n">
         <v>19.64204</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>89.367</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>282.33331</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>101.04589</v>
+        <v>570.6856700000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1379.10034</v>
+        <v>1378.59034</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>1854.06164</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>243.63718</v>
+        <v>68.36962</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>977.5394699999999</v>
+        <v>2579.97607</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1957.39591</v>
+        <v>5174.859030000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>982.20183</v>
+        <v>529.2478199999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>939.87092</v>
+        <v>845.34294</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1045.10416</v>
+        <v>1230.48984</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2344.14301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2357.43706</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3490.36</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>48.79700999999999</v>
+        <v>41.85268</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2.91839</v>
+        <v>4.48934</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>178.56002</v>
+        <v>183.89353</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>199.64571</v>
+        <v>203.38647</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>439.2588399999999</v>
+        <v>68.34089999999998</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>41.98834</v>
+        <v>83.42721</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>268.9945</v>
+        <v>268.99476</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>98.90353999999998</v>
+        <v>103.45112</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>440.51201</v>
+        <v>436.27958</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2744.084170000001</v>
+        <v>354.99188</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>365.88894</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>382.98433</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>319.519</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1863.03324</v>
+        <v>2915.33745</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1577.4736</v>
+        <v>3918.19285</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2125.19936</v>
+        <v>3864.86394</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3002.09491</v>
+        <v>4044.04182</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>6201.99002</v>
+        <v>9426.343560000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4310.95296</v>
+        <v>13843.54138</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>12453.96333</v>
+        <v>35363.91429</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>11903.62081</v>
+        <v>27617.75337</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>13204.90635</v>
+        <v>21569.81155</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>80751.09183</v>
+        <v>130833.40973</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>45002.84005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>76533.35587</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>170313.224</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0</v>
+        <v>0.15271</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
@@ -2057,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>24.29509</v>
+        <v>823.74916</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>416.87949</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>47.622</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>111.95518</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>97.71517999999999</v>
+        <v>97.3593</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>373.47421</v>
@@ -2113,170 +2164,195 @@
       <c r="M34" s="48" t="n">
         <v>62.31547</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1.729</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>544.29552</v>
+        <v>345.53547</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>920.48812</v>
+        <v>1066.00708</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1940.57788</v>
+        <v>1963.51283</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1514.55238</v>
+        <v>3083.21473</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1992.54747</v>
+        <v>9169.69303</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4626.61966</v>
+        <v>6233.818630000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3289.68142</v>
+        <v>3464.46745</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4885.90557</v>
+        <v>3792.212569999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>5531.1182</v>
+        <v>5219.666790000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>9907.091530000002</v>
+        <v>13455.11426</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>17765.8091</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>21991.54836</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>47741.697</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2585.793889999999</v>
+        <v>3601.13345</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2679.972</v>
+        <v>5490.762860000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5641.573620000001</v>
+        <v>6037.40076</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3748.95836</v>
+        <v>5010.71707</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>13958.82062</v>
+        <v>21519.22796</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>8139.188959999999</v>
+        <v>20026.26403</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>21162.54131</v>
+        <v>38394.54398999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>21632.04673</v>
+        <v>35683.01396</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>22797.00203</v>
+        <v>25191.35643</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>110046.38425</v>
+        <v>189729.06891</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>84253.95878</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>139750.38416</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>232043.206</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>12.83016</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>10.91599</v>
+        <v>0.9894400000000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>14.81733</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>99.95943</v>
+        <v>98.29378999999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>116.59241</v>
+        <v>109.85653</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>170.85032</v>
+        <v>179.00446</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>262.1307</v>
+        <v>281.73321</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>38.41375</v>
+        <v>58.76804</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>97.71267000000002</v>
+        <v>38.94379</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>370.98141</v>
+        <v>396.46178</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>530.76283</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>474.04596</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1035.365</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>531.15442</v>
+        <v>529.7570400000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>833.67323</v>
+        <v>1241.40203</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>524.4311</v>
+        <v>479.4311</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>460.69322</v>
+        <v>826.0963900000002</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2717.05875</v>
+        <v>4986.499980000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>676.95127</v>
+        <v>3044.8486</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>871.32919</v>
+        <v>1253.01159</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2504.38379</v>
+        <v>2487.14946</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3265.31484</v>
+        <v>3347.23151</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>7295.586729999999</v>
+        <v>7480.72604</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>11972.6508</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>22394.90152</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>14921.607</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>43.28122</v>
+        <v>36.2558</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>8.135260000000001</v>
@@ -2291,70 +2367,80 @@
         <v>126.24821</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0</v>
+        <v>101.38841</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>38.916</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>25.99678</v>
+        <v>10.76946</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>168.75028</v>
+        <v>169.49369</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0.42257</v>
+        <v>10453.89257</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>11264.4517</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1482.85433</v>
+        <v>2518.34829</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1303.76097</v>
+        <v>3587.35849</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4210.78048</v>
+        <v>4525.577649999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2440.43364</v>
+        <v>3352.38658</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>10468.46987</v>
+        <v>14050.14241</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6024.16705</v>
+        <v>14910.12267</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>17565.44216</v>
+        <v>33481.45792</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>16964.971</v>
+        <v>31110.71002</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>15071.34767</v>
+        <v>19403.58609</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>99224.63127</v>
+        <v>164594.5516</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>52929.44768</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>94857.98458</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>194214.693</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>91.09322</v>
+        <v>91.24593</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2366,10 +2452,10 @@
         <v>0.2698</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>465.0034</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>334.45067</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>392.76069</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>11.006</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>0.7627</v>
+        <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2425,365 +2516,415 @@
       <c r="M42" s="48" t="n">
         <v>242.71806</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1071.586</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>424.58054</v>
+        <v>412.69623</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>523.48655</v>
+        <v>652.87764</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>263.17514</v>
+        <v>389.20511</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>740.8866200000001</v>
+        <v>727.71756</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>530.4513799999999</v>
+        <v>1781.47743</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1262.04759</v>
+        <v>1451.27649</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2424.72326</v>
+        <v>3308.35127</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1973.96167</v>
+        <v>1891.29724</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>4177.22609</v>
+        <v>2215.45087</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2984.61219</v>
+        <v>6633.28684</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6921.167020000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10123.52165</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>20788.628</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>6002.509400000001</v>
+        <v>7635.918849999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>5301.510020000001</v>
+        <v>7440.206640000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>7181.22362</v>
+        <v>10786.94922</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>9900.555890000001</v>
+        <v>9995.901810000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>14303.24952</v>
+        <v>17081.43416</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>17745.0132</v>
+        <v>20948.27241</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>20998.46074</v>
+        <v>32929.83401</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>31147.78782</v>
+        <v>39964.76150000001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>25017.38396</v>
+        <v>32780.42139</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>91131.96501</v>
+        <v>105447.57595</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>92480.01320999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>120202.41684</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>109953.888</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>5685.45947</v>
+        <v>7327.765069999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>5173.624760000001</v>
+        <v>7313.540260000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6904.908030000001</v>
+        <v>10563.77039</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>9274.485349999999</v>
+        <v>9380.74883</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>13637.82353</v>
+        <v>16411.72494</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>17200.77476</v>
+        <v>20336.04536</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>20315.33556</v>
+        <v>31246.79614</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>29706.25873</v>
+        <v>38694.48962</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>22895.52211</v>
+        <v>30953.95013</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>88887.84735000001</v>
+        <v>103286.28767</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>86663.13136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>115877.58975</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>95591.738</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>317.04993</v>
+        <v>308.15378</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>127.88526</v>
+        <v>126.66638</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>276.31559</v>
+        <v>223.17883</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>626.0705399999999</v>
+        <v>615.15298</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>665.42599</v>
+        <v>669.70922</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>544.23844</v>
+        <v>612.2270500000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>683.1251799999999</v>
+        <v>1683.03787</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1441.52909</v>
+        <v>1270.27188</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2121.86185</v>
+        <v>1826.47126</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2244.11766</v>
+        <v>2161.28828</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5816.88185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4324.827089999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>14362.15</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>9267.59484</v>
+        <v>7588.201800000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>13224.58034</v>
+        <v>4182.97841</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>5757.483909999999</v>
+        <v>-2677.027910000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>10963.60579</v>
+        <v>14888.74879</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>20998.30665</v>
+        <v>16540.10526</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>39426.37472000001</v>
+        <v>37201.16618000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>14449.8621</v>
+        <v>37711.40199</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5443.74561</v>
+        <v>27339.42854</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>28887.39145</v>
+        <v>31711.90339</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>122261.29131</v>
+        <v>166589.16913</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>83915.92930999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>81202.24796000001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>36639.214</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1951.28074</v>
+        <v>1795.92833</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4208.54021</v>
+        <v>4427.409130000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4286.71925</v>
+        <v>4603.799670000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>5659.223690000001</v>
+        <v>5326.37521</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>8165.206250000001</v>
+        <v>9124.467849999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>13306.46548</v>
+        <v>16968.66886</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>13624.7389</v>
+        <v>25899.73078</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>16972.48111</v>
+        <v>12992.93908</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>17966.81896</v>
+        <v>20357.20454</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>24446.21365</v>
+        <v>21521.6461</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>42188.83651000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>55521.47459000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>79716.78599999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>0.00696</v>
+        <v>0</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>56.91035</v>
+        <v>67.6023</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>60.41085</v>
+        <v>104.08175</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>55.4435</v>
+        <v>85.11227000000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>52.82138</v>
+        <v>88.87657</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>60.67740999999999</v>
+        <v>18.98324</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>83.96706</v>
+        <v>92.46730000000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>96.08832999999998</v>
+        <v>93.15313</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>6.910780000000001</v>
+        <v>8.494819999999999</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>151.62084</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1803.31582</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1803.46292</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3311.087</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1951.27378</v>
+        <v>1795.92833</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4151.62986</v>
+        <v>4359.80683</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4226.308400000001</v>
+        <v>4499.717920000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>5603.78019</v>
+        <v>5241.262940000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>8112.384870000001</v>
+        <v>9035.591279999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>13245.78807</v>
+        <v>16949.68562</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>13540.77184</v>
+        <v>25807.26348</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>16876.39278</v>
+        <v>12899.78595</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>17959.90818</v>
+        <v>20348.70972</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>24294.59281</v>
+        <v>21370.02526</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>40385.52069</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>53718.01167</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>76405.69899999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1748.28034</v>
+        <v>1640.56801</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1330.51969</v>
+        <v>1508.2626</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>15594.09878</v>
+        <v>14302.06444</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5991.345</v>
+        <v>5736.049260000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9912.785790000002</v>
+        <v>14446.65225</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>20576.13448</v>
+        <v>24858.89336</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>14530.82741</v>
+        <v>24893.49804</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>37611.33809999999</v>
+        <v>33342.92643000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>15164.55048</v>
+        <v>13292.53488</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>74268.81825</v>
+        <v>67850.3417</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>30352.04373</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>48745.63338</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>40184.261</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>0.36694</v>
+        <v>74.23369</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>303.19213</v>
@@ -2795,223 +2936,251 @@
         <v>1306.58185</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>951.6502800000001</v>
+        <v>3962.57122</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>900.91542</v>
+        <v>865.7473899999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2591.91725</v>
+        <v>1606.70409</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3469.17183</v>
+        <v>368.86501</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>985.71359</v>
+        <v>725.5311599999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2972.6655</v>
+        <v>2648.97535</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1780.47408</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3368.59952</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9417.832</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>71.21298000000002</v>
+        <v>127.44846</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>6.99898</v>
+        <v>8.7308</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>148.04764</v>
+        <v>68.46685000000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>537.0163</v>
+        <v>523.1012000000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>120.99392</v>
+        <v>211.41595</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>109.46037</v>
+        <v>115.52715</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>218.77981</v>
+        <v>113.43347</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>391.54142</v>
+        <v>455.24084</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>396.90244</v>
+        <v>496.64057</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1011.46685</v>
+        <v>911.14814</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1615.31789</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>10165.1663</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6212.364</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1676.70042</v>
+        <v>1438.88586</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1020.32858</v>
+        <v>1196.33967</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>15296.17087</v>
+        <v>14083.71732</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4147.74685</v>
+        <v>3906.36621</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>8840.141589999999</v>
+        <v>10272.66508</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>19565.75869</v>
+        <v>23877.61882</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11720.13035</v>
+        <v>23173.36048</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>33750.62485</v>
+        <v>32518.82058</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>13781.93445</v>
+        <v>12070.36315</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>70284.6859</v>
+        <v>64290.21820999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>26956.25176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>35211.86756</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>24554.065</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>9470.595240000001</v>
+        <v>7743.562120000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>16102.60086</v>
+        <v>7102.124940000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-5549.89562</v>
+        <v>-12375.29268</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>10631.48448</v>
+        <v>14479.07474</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>19250.72711</v>
+        <v>11217.92086</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>32156.70572</v>
+        <v>29310.94168</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>13543.77359</v>
+        <v>38717.63473000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-15195.11138</v>
+        <v>6989.44119</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>31689.65993</v>
+        <v>38776.57305</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>72438.68670999999</v>
+        <v>120260.47353</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>95752.72209000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>87978.08917000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>76171.739</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2593.28602</v>
+        <v>3014.53828</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3648.61047</v>
+        <v>3736.24682</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>3843.09077</v>
+        <v>4190.981949999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4690.794510000001</v>
+        <v>4921.708560000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>7214.116319999999</v>
+        <v>8242.541380000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>8897.698249999999</v>
+        <v>9616.44751</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8734.71479</v>
+        <v>10876.97143</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9870.269490000001</v>
+        <v>11761.31628</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>11042.55635</v>
+        <v>13354.41191</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>37962.28908</v>
+        <v>41256.62688</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>35627.98636</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>35739.88125000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>37386.631</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>6877.309220000001</v>
+        <v>4729.02384</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>12453.99039</v>
+        <v>3365.87812</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-9392.98639</v>
+        <v>-16566.27463</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5940.689969999999</v>
+        <v>9557.366180000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>12036.61079</v>
+        <v>2975.379480000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>23259.00747</v>
+        <v>19694.49417</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4809.0588</v>
+        <v>27840.6633</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-25065.38087</v>
+        <v>-4771.87509</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>20647.10358</v>
+        <v>25422.16114</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>34476.39762999999</v>
+        <v>79003.84665000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>60124.73573</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>52238.20792</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>38785.108</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>593</v>
+        <v>488</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>635</v>
+        <v>511</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>570</v>
+        <v>488</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>524</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>